--- a/Analytics/SC0/Goalmins_sc0.xlsx
+++ b/Analytics/SC0/Goalmins_sc0.xlsx
@@ -100,7 +100,7 @@
     <t>SUM(TGM)</t>
   </si>
   <si>
-    <t>SUM(TGM) / 30</t>
+    <t>SUM(TGM) / 38</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
         <v>6979.0</v>
       </c>
       <c r="D2" t="n">
-        <v>232.63333333333333</v>
+        <v>183.6578947368421</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>6641.0</v>
       </c>
       <c r="D3" t="n">
-        <v>221.36666666666667</v>
+        <v>174.76315789473685</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>6511.0</v>
       </c>
       <c r="D4" t="n">
-        <v>217.03333333333333</v>
+        <v>171.3421052631579</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>6197.0</v>
       </c>
       <c r="D5" t="n">
-        <v>206.56666666666666</v>
+        <v>163.07894736842104</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>5881.0</v>
       </c>
       <c r="D6" t="n">
-        <v>196.03333333333333</v>
+        <v>154.76315789473685</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         <v>5581.0</v>
       </c>
       <c r="D7" t="n">
-        <v>186.03333333333333</v>
+        <v>146.8684210526316</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>5513.0</v>
       </c>
       <c r="D8" t="n">
-        <v>183.76666666666668</v>
+        <v>145.07894736842104</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>5440.0</v>
       </c>
       <c r="D9" t="n">
-        <v>181.33333333333334</v>
+        <v>143.1578947368421</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>5117.0</v>
       </c>
       <c r="D10" t="n">
-        <v>170.56666666666666</v>
+        <v>134.6578947368421</v>
       </c>
     </row>
     <row r="11">
@@ -608,7 +608,7 @@
         <v>5086.0</v>
       </c>
       <c r="D11" t="n">
-        <v>169.53333333333333</v>
+        <v>133.8421052631579</v>
       </c>
     </row>
     <row r="12">
@@ -622,7 +622,7 @@
         <v>4641.0</v>
       </c>
       <c r="D12" t="n">
-        <v>154.7</v>
+        <v>122.13157894736842</v>
       </c>
     </row>
     <row r="13">
@@ -636,7 +636,7 @@
         <v>4621.0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.03333333333333</v>
+        <v>121.60526315789474</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/Goalmins_sc0.xlsx
+++ b/Analytics/SC0/Goalmins_sc0.xlsx
@@ -58,40 +58,40 @@
     <t>12</t>
   </si>
   <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
     <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>3726.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>3652.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>3308.0</v>
+        <v>1050.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3196.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>2687.0</v>
+        <v>819.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>2675.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>2661.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>2607.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>2562.0</v>
+        <v>664.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>2476.0</v>
+        <v>654.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>2414.0</v>
+        <v>613.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>2140.0</v>
+        <v>560.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>3783.0</v>
+        <v>1250.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>3333.0</v>
+        <v>1126.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3194.0</v>
+        <v>1106.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2977.0</v>
+        <v>888.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>2964.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>2951.0</v>
+        <v>839.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2920.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>2785.0</v>
+        <v>729.0</v>
       </c>
     </row>
     <row r="10">
@@ -410,7 +410,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>2545.0</v>
+        <v>666.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>2411.0</v>
+        <v>567.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>2207.0</v>
+        <v>500.0</v>
       </c>
     </row>
     <row r="13">
@@ -440,10 +440,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>2034.0</v>
+        <v>433.0</v>
       </c>
     </row>
   </sheetData>
@@ -479,10 +479,10 @@
         <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>6979.0</v>
+        <v>2010.0</v>
       </c>
       <c r="D2" t="n">
-        <v>183.6578947368421</v>
+        <v>52.89473684210526</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>6641.0</v>
+        <v>1964.0</v>
       </c>
       <c r="D3" t="n">
-        <v>174.76315789473685</v>
+        <v>51.68421052631579</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>6511.0</v>
+        <v>1749.0</v>
       </c>
       <c r="D4" t="n">
-        <v>171.3421052631579</v>
+        <v>46.026315789473685</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>6197.0</v>
+        <v>1733.0</v>
       </c>
       <c r="D5" t="n">
-        <v>163.07894736842104</v>
+        <v>45.60526315789474</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>5881.0</v>
+        <v>1719.0</v>
       </c>
       <c r="D6" t="n">
-        <v>154.76315789473685</v>
+        <v>45.23684210526316</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>5581.0</v>
+        <v>1610.0</v>
       </c>
       <c r="D7" t="n">
-        <v>146.8684210526316</v>
+        <v>42.36842105263158</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>5513.0</v>
+        <v>1576.0</v>
       </c>
       <c r="D8" t="n">
-        <v>145.07894736842104</v>
+        <v>41.473684210526315</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5440.0</v>
+        <v>1561.0</v>
       </c>
       <c r="D9" t="n">
-        <v>143.1578947368421</v>
+        <v>41.078947368421055</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>5117.0</v>
+        <v>1550.0</v>
       </c>
       <c r="D10" t="n">
-        <v>134.6578947368421</v>
+        <v>40.78947368421053</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>5086.0</v>
+        <v>1542.0</v>
       </c>
       <c r="D11" t="n">
-        <v>133.8421052631579</v>
+        <v>40.578947368421055</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>4641.0</v>
+        <v>1289.0</v>
       </c>
       <c r="D12" t="n">
-        <v>122.13157894736842</v>
+        <v>33.921052631578945</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>4621.0</v>
+        <v>1097.0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.60526315789474</v>
+        <v>28.86842105263158</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/Goalmins_sc0.xlsx
+++ b/Analytics/SC0/Goalmins_sc0.xlsx
@@ -58,19 +58,25 @@
     <t>12</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
     <t>Dundee</t>
   </si>
   <si>
     <t>Ross County</t>
   </si>
   <si>
-    <t>Aberdeen</t>
+    <t>Hibernian</t>
   </si>
   <si>
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Hibernian</t>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Celtic</t>
@@ -79,19 +85,13 @@
     <t>St Mirren</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
+    <t>Motherwell</t>
   </si>
   <si>
     <t>Rangers</t>
   </si>
   <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
     <t>Hearts</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1166.0</v>
+        <v>1443.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>1083.0</v>
+        <v>1166.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>1050.0</v>
+        <v>1083.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>884.0</v>
+        <v>1023.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>819.0</v>
+        <v>884.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>771.0</v>
+        <v>871.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>722.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>714.0</v>
+        <v>771.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>664.0</v>
+        <v>722.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>654.0</v>
+        <v>672.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>613.0</v>
+        <v>670.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>560.0</v>
+        <v>613.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,7 +319,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>1250.0</v>
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>1126.0</v>
+        <v>1238.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>1106.0</v>
+        <v>1112.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>888.0</v>
+        <v>1043.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>839.0</v>
+        <v>960.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>839.0</v>
+        <v>959.0</v>
       </c>
     </row>
     <row r="8">
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="n">
-        <v>757.0</v>
+        <v>888.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>729.0</v>
+        <v>883.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>666.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>567.0</v>
+        <v>729.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,7 +429,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>500.0</v>
@@ -440,7 +440,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
         <v>433.0</v>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>2010.0</v>
+        <v>2126.0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.89473684210526</v>
+        <v>55.94736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>1964.0</v>
+        <v>2122.0</v>
       </c>
       <c r="D3" t="n">
-        <v>51.68421052631579</v>
+        <v>55.8421052631579</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>1749.0</v>
+        <v>2084.0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.026315789473685</v>
+        <v>54.8421052631579</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>1733.0</v>
+        <v>1966.0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.60526315789474</v>
+        <v>51.73684210526316</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>1719.0</v>
+        <v>1943.0</v>
       </c>
       <c r="D6" t="n">
-        <v>45.23684210526316</v>
+        <v>51.13157894736842</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>1610.0</v>
+        <v>1780.0</v>
       </c>
       <c r="D7" t="n">
-        <v>42.36842105263158</v>
+        <v>46.8421052631579</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>1576.0</v>
+        <v>1765.0</v>
       </c>
       <c r="D8" t="n">
-        <v>41.473684210526315</v>
+        <v>46.44736842105263</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>1561.0</v>
+        <v>1759.0</v>
       </c>
       <c r="D9" t="n">
-        <v>41.078947368421055</v>
+        <v>46.28947368421053</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>1550.0</v>
+        <v>1730.0</v>
       </c>
       <c r="D10" t="n">
-        <v>40.78947368421053</v>
+        <v>45.526315789473685</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.0</v>
+        <v>1725.0</v>
       </c>
       <c r="D11" t="n">
-        <v>40.578947368421055</v>
+        <v>45.39473684210526</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>1289.0</v>
+        <v>1401.0</v>
       </c>
       <c r="D12" t="n">
-        <v>33.921052631578945</v>
+        <v>36.86842105263158</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>1097.0</v>
+        <v>1103.0</v>
       </c>
       <c r="D13" t="n">
-        <v>28.86842105263158</v>
+        <v>29.026315789473685</v>
       </c>
     </row>
   </sheetData>
